--- a/chap03/LeastSquaMeth.xlsx
+++ b/chap03/LeastSquaMeth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lty\ProgramFile\NumAnalysis\chap03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEFDD64-F600-4878-BFFB-02B80C26007B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A1C8C3-3212-4470-BA1E-C9781F7D43B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -348,44 +348,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="B1" s="1">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="C1" s="1">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="D1" s="1">
-        <v>5</v>
+        <v>0.4</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>4.3870141760000001</v>
       </c>
       <c r="B2" s="1">
-        <v>3</v>
+        <v>3.9871304780000001</v>
       </c>
       <c r="C2" s="1">
-        <v>5</v>
+        <v>3.5862928649999999</v>
       </c>
       <c r="D2" s="1">
-        <v>7</v>
+        <v>3.1863526329999998</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.7850112419999999</v>
       </c>
     </row>
   </sheetData>
